--- a/Stocks/GRANULES.xlsx
+++ b/Stocks/GRANULES.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="115" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="35">
   <si>
     <t>Scrip</t>
   </si>
@@ -601,7 +601,7 @@
         <v>151.81666666666666</v>
       </c>
       <c r="H2" t="e">
-        <f t="array" ref="H2:H82">_xll.TA_EMA(G2:G82,3)</f>
+        <f t="array" ref="H2:H107">_xll.TA_EMA(G2:G107,3)</f>
         <v>#N/A</v>
       </c>
       <c r="I2" t="e">
@@ -609,11 +609,11 @@
         <v>#N/A</v>
       </c>
       <c r="J2" t="e">
-        <f t="array" ref="J2:J82">_xll.TA_EMA(D2:D82,8)</f>
+        <f t="array" ref="J2:J107">_xll.TA_EMA(D2:D107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="K2" t="e">
-        <f t="array" ref="K2:K82">_xll.TA_EMA(E2:E82,8)</f>
+        <f t="array" ref="K2:K107">_xll.TA_EMA(E2:E107,8)</f>
         <v>#N/A</v>
       </c>
       <c r="L2" t="e">
@@ -625,7 +625,7 @@
         <v>#N/A</v>
       </c>
       <c r="N2" t="e">
-        <f t="array" ref="N2:N82">_xll.TA_RSI(F2:F82,5)</f>
+        <f t="array" ref="N2:N107">_xll.TA_RSI(F2:F107,5)</f>
         <v>#N/A</v>
       </c>
       <c r="O2" t="e">
@@ -657,11 +657,11 @@
         <v>#N/A</v>
       </c>
       <c r="V2" t="e">
-        <f t="array" ref="V2:V82">_xll.TA_EMA(F2:F82,12)</f>
+        <f t="array" ref="V2:V107">_xll.TA_EMA(F2:F107,12)</f>
         <v>#N/A</v>
       </c>
       <c r="W2" t="e">
-        <f t="array" ref="W2:W82">_xll.TA_EMA(F2:F82,26)</f>
+        <f t="array" ref="W2:W107">_xll.TA_EMA(F2:F107,26)</f>
         <v>#N/A</v>
       </c>
       <c r="X2" t="e">
@@ -669,7 +669,7 @@
         <v>#N/A</v>
       </c>
       <c r="Y2" t="e">
-        <f t="array" ref="Y2:Y82">_xll.TA_EMA(X2:X82,9)</f>
+        <f t="array" ref="Y2:Y107">_xll.TA_EMA(X2:X107,9)</f>
         <v>#N/A</v>
       </c>
       <c r="Z2" t="e">
@@ -8696,7 +8696,7 @@
         <v>137.10628581828644</v>
       </c>
       <c r="I67" t="str">
-        <f t="shared" ref="I67:I82" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
+        <f t="shared" ref="I67:I107" si="20">IF(F67&gt;H67,"UP","DOWN")</f>
         <v>DOWN</v>
       </c>
       <c r="J67">
@@ -8706,42 +8706,42 @@
         <v>136.93521065982284</v>
       </c>
       <c r="L67" t="str">
-        <f t="shared" ref="L67:L82" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="L67:L107" si="21">IF(F67&gt;J67,"UP",IF(F67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>DOWN</v>
       </c>
       <c r="M67" t="str">
-        <f t="shared" ref="M67:M82" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
+        <f t="shared" ref="M67:M107" si="22">IF(AND(I67="UP",L67="UP"),"UP",IF(AND(I67="DOWN",L67="DOWN"),"DOWN","No Trend"))</f>
         <v>DOWN</v>
       </c>
       <c r="N67">
         <v>32.614158560485016</v>
       </c>
       <c r="O67" t="str">
-        <f t="shared" ref="O67:O82" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
+        <f t="shared" ref="O67:O107" si="23">IF(N67&gt;60,"UP",IF(N67&lt;40,"DOWN","No Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="P67" t="str">
-        <f t="shared" ref="P67:P82" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
+        <f t="shared" ref="P67:P107" si="24">IF(AND(M67="UP",O67="UP"),"UP",IF(AND(M67="DOWN",O67="DOWN"),"DOWN","No Trend + Momentum"))</f>
         <v>DOWN</v>
       </c>
       <c r="Q67">
-        <f t="shared" ref="Q67:Q82" si="25">F67-E67</f>
+        <f t="shared" ref="Q67:Q107" si="25">F67-E67</f>
         <v>0.29999999999998295</v>
       </c>
       <c r="R67">
-        <f t="shared" ref="R67:R82" si="26">D67-E67</f>
+        <f t="shared" ref="R67:R107" si="26">D67-E67</f>
         <v>3.3499999999999943</v>
       </c>
       <c r="S67">
-        <f t="shared" ref="S67:S82" si="27">Q67/R67</f>
+        <f t="shared" ref="S67:S107" si="27">Q67/R67</f>
         <v>8.9552238805965217E-2</v>
       </c>
       <c r="T67" t="str">
-        <f t="shared" ref="T67:T82" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
+        <f t="shared" ref="T67:T107" si="28">IF(S67&gt;0.8,"UP",IF(S67&lt;0.2,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="U67" t="str">
-        <f t="shared" ref="U67:U82" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
+        <f t="shared" ref="U67:U107" si="29">IF(AND(P67="UP",T67="UP"),"UP",IF(AND(P67="DOWN",T67="DOWN"),"DOWN","No T+M+I"))</f>
         <v>DOWN</v>
       </c>
       <c r="V67">
@@ -8751,42 +8751,42 @@
         <v>139.63499081704873</v>
       </c>
       <c r="X67">
-        <f t="shared" ref="X67:X82" si="30">V67-W67</f>
+        <f t="shared" ref="X67:X107" si="30">V67-W67</f>
         <v>-0.7183552318897739</v>
       </c>
       <c r="Y67">
         <v>-0.10056829735997785</v>
       </c>
       <c r="Z67" t="str">
-        <f t="shared" ref="Z67:Z82" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
+        <f t="shared" ref="Z67:Z107" si="31">IF(X67&gt;Y67,"UP",IF(X67&lt;Y67,"DOWN","No Indication"))</f>
         <v>DOWN</v>
       </c>
       <c r="AA67" t="str">
-        <f t="shared" ref="AA67:AA82" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
+        <f t="shared" ref="AA67:AA107" si="32">IF(AND(U67="UP",Z67="UP"),"UP",IF(AND(U67="DOWN",Z67="DOWN"),"DOWN","No TMIM"))</f>
         <v>DOWN</v>
       </c>
       <c r="AB67" t="str">
-        <f t="shared" ref="AB67:AB82" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
+        <f t="shared" ref="AB67:AB107" si="33">IF(H67&gt;J67,"UP",IF(H67&lt;K67,"DOWN","No Confirmation"))</f>
         <v>No Confirmation</v>
       </c>
       <c r="AC67" t="str">
-        <f t="shared" ref="AC67:AC82" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
+        <f t="shared" ref="AC67:AC107" si="34">IF(AND(AA67="UP",AB67="UP"),"UP",IF(AND(AA67="DOWN",AB67="DOWN"),"DOWN","No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AD67" t="str">
-        <f t="shared" ref="AD67:AD82" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
+        <f t="shared" ref="AD67:AD107" si="35">IF(AC67="UP",MROUND(D67-((D67-E67)*0.886),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.886),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE82" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
+        <f t="shared" ref="AE67:AE107" si="36">IF(AC67="UP",MROUND(D67-((D67-E67)*0.618),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.618),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF82" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
+        <f t="shared" ref="AF67:AF107" si="37">IF(AC67="UP",MROUND(D67-((D67-E67)*0.5),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.5),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
       <c r="AG67" t="str">
-        <f t="shared" ref="AG67:AG82" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
+        <f t="shared" ref="AG67:AG107" si="38">IF(AC67="UP",MROUND(D67-((D67-E67)*0.382),0.05),IF(AC67="DOWN",MROUND(E67+((D67-E67)*0.382),0.05),"No Alert"))</f>
         <v>No Alert</v>
       </c>
     </row>
@@ -10606,93 +10606,3043 @@
       </c>
     </row>
     <row r="83" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B83" s="1"/>
+      <c r="A83" t="s">
+        <v>5</v>
+      </c>
+      <c r="B83" s="1">
+        <v>42975</v>
+      </c>
+      <c r="C83">
+        <v>130.19999999999999</v>
+      </c>
+      <c r="D83">
+        <v>131.94999999999999</v>
+      </c>
+      <c r="E83">
+        <v>130</v>
+      </c>
+      <c r="F83">
+        <v>131.30000000000001</v>
+      </c>
+      <c r="G83">
+        <f>_xll.TA_TYPPRICE(D83,E83,F83)</f>
+        <v>131.08333333333334</v>
+      </c>
+      <c r="H83">
+        <v>129.82388391549404</v>
+      </c>
+      <c r="I83" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J83">
+        <v>129.81209419453933</v>
+      </c>
+      <c r="K83">
+        <v>125.41450197691665</v>
+      </c>
+      <c r="L83" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M83" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N83">
+        <v>71.486374700779606</v>
+      </c>
+      <c r="O83" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P83" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q83">
+        <f t="shared" si="25"/>
+        <v>1.3000000000000114</v>
+      </c>
+      <c r="R83">
+        <f t="shared" si="26"/>
+        <v>1.9499999999999886</v>
+      </c>
+      <c r="S83">
+        <f t="shared" si="27"/>
+        <v>0.6666666666666764</v>
+      </c>
+      <c r="T83" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U83" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V83">
+        <v>127.23967931158165</v>
+      </c>
+      <c r="W83">
+        <v>129.50091854326448</v>
+      </c>
+      <c r="X83">
+        <f t="shared" si="30"/>
+        <v>-2.261239231682822</v>
+      </c>
+      <c r="Y83">
+        <v>-3.6173014115986906</v>
+      </c>
+      <c r="Z83" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA83" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB83" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC83" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD83" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE83" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG83" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="84" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B84" s="1"/>
+      <c r="A84" t="s">
+        <v>5</v>
+      </c>
+      <c r="B84" s="1">
+        <v>42976</v>
+      </c>
+      <c r="C84">
+        <v>129.9</v>
+      </c>
+      <c r="D84">
+        <v>130.15</v>
+      </c>
+      <c r="E84">
+        <v>125.65</v>
+      </c>
+      <c r="F84">
+        <v>126</v>
+      </c>
+      <c r="G84">
+        <f>_xll.TA_TYPPRICE(D84,E84,F84)</f>
+        <v>127.26666666666667</v>
+      </c>
+      <c r="H84">
+        <v>128.54527529108034</v>
+      </c>
+      <c r="I84" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J84">
+        <v>129.8871843735306</v>
+      </c>
+      <c r="K84">
+        <v>125.46683487093517</v>
+      </c>
+      <c r="L84" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M84" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N84">
+        <v>45.246910392869452</v>
+      </c>
+      <c r="O84" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P84" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q84">
+        <f t="shared" si="25"/>
+        <v>0.34999999999999432</v>
+      </c>
+      <c r="R84">
+        <f t="shared" si="26"/>
+        <v>4.5</v>
+      </c>
+      <c r="S84">
+        <f t="shared" si="27"/>
+        <v>7.7777777777776516E-2</v>
+      </c>
+      <c r="T84" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U84" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V84">
+        <v>127.04895941749217</v>
+      </c>
+      <c r="W84">
+        <v>129.24159124376339</v>
+      </c>
+      <c r="X84">
+        <f t="shared" si="30"/>
+        <v>-2.1926318262712243</v>
+      </c>
+      <c r="Y84">
+        <v>-3.3323674945331971</v>
+      </c>
+      <c r="Z84" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA84" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB84" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC84" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD84" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE84" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF84" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG84" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="85" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B85" s="1"/>
+      <c r="A85" t="s">
+        <v>5</v>
+      </c>
+      <c r="B85" s="1">
+        <v>42977</v>
+      </c>
+      <c r="C85">
+        <v>127</v>
+      </c>
+      <c r="D85">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="E85">
+        <v>127</v>
+      </c>
+      <c r="F85">
+        <v>127.6</v>
+      </c>
+      <c r="G85">
+        <f>_xll.TA_TYPPRICE(D85,E85,F85)</f>
+        <v>127.96666666666665</v>
+      </c>
+      <c r="H85">
+        <v>128.25597097887351</v>
+      </c>
+      <c r="I85" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J85">
+        <v>129.75669895719048</v>
+      </c>
+      <c r="K85">
+        <v>125.80753823294958</v>
+      </c>
+      <c r="L85" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M85" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N85">
+        <v>51.908180251898571</v>
+      </c>
+      <c r="O85" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P85" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q85">
+        <f t="shared" si="25"/>
+        <v>0.59999999999999432</v>
+      </c>
+      <c r="R85">
+        <f t="shared" si="26"/>
+        <v>2.3000000000000114</v>
+      </c>
+      <c r="S85">
+        <f t="shared" si="27"/>
+        <v>0.26086956521738752</v>
+      </c>
+      <c r="T85" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U85" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V85">
+        <v>127.13373489172415</v>
+      </c>
+      <c r="W85">
+        <v>129.11999189237352</v>
+      </c>
+      <c r="X85">
+        <f t="shared" si="30"/>
+        <v>-1.986257000649374</v>
+      </c>
+      <c r="Y85">
+        <v>-3.0631453957564325</v>
+      </c>
+      <c r="Z85" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA85" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB85" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC85" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD85" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE85" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF85" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG85" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="86" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B86" s="1"/>
+      <c r="A86" t="s">
+        <v>5</v>
+      </c>
+      <c r="B86" s="1">
+        <v>42978</v>
+      </c>
+      <c r="C86">
+        <v>128</v>
+      </c>
+      <c r="D86">
+        <v>129.30000000000001</v>
+      </c>
+      <c r="E86">
+        <v>126.6</v>
+      </c>
+      <c r="F86">
+        <v>127.65</v>
+      </c>
+      <c r="G86">
+        <f>_xll.TA_TYPPRICE(D86,E86,F86)</f>
+        <v>127.85000000000001</v>
+      </c>
+      <c r="H86">
+        <v>128.05298548943676</v>
+      </c>
+      <c r="I86" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J86">
+        <v>129.65521030003706</v>
+      </c>
+      <c r="K86">
+        <v>125.98364084784967</v>
+      </c>
+      <c r="L86" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M86" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N86">
+        <v>52.135648410582334</v>
+      </c>
+      <c r="O86" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P86" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q86">
+        <f t="shared" si="25"/>
+        <v>1.0500000000000114</v>
+      </c>
+      <c r="R86">
+        <f t="shared" si="26"/>
+        <v>2.7000000000000171</v>
+      </c>
+      <c r="S86">
+        <f t="shared" si="27"/>
+        <v>0.38888888888889062</v>
+      </c>
+      <c r="T86" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U86" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V86">
+        <v>127.21316029299736</v>
+      </c>
+      <c r="W86">
+        <v>129.01110360404957</v>
+      </c>
+      <c r="X86">
+        <f t="shared" si="30"/>
+        <v>-1.7979433110522081</v>
+      </c>
+      <c r="Y86">
+        <v>-2.8101049788155876</v>
+      </c>
+      <c r="Z86" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA86" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB86" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC86" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD86" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE86" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF86" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG86" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="87" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B87" s="1"/>
+      <c r="A87" t="s">
+        <v>5</v>
+      </c>
+      <c r="B87" s="1">
+        <v>42979</v>
+      </c>
+      <c r="C87">
+        <v>128.9</v>
+      </c>
+      <c r="D87">
+        <v>130.55000000000001</v>
+      </c>
+      <c r="E87">
+        <v>128.1</v>
+      </c>
+      <c r="F87">
+        <v>129.35</v>
+      </c>
+      <c r="G87">
+        <f>_xll.TA_TYPPRICE(D87,E87,F87)</f>
+        <v>129.33333333333334</v>
+      </c>
+      <c r="H87">
+        <v>128.69315941138507</v>
+      </c>
+      <c r="I87" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J87">
+        <v>129.85405245558437</v>
+      </c>
+      <c r="K87">
+        <v>126.45394288166085</v>
+      </c>
+      <c r="L87" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M87" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N87">
+        <v>60.146901069710459</v>
+      </c>
+      <c r="O87" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P87" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q87">
+        <f t="shared" si="25"/>
+        <v>1.25</v>
+      </c>
+      <c r="R87">
+        <f t="shared" si="26"/>
+        <v>2.4500000000000171</v>
+      </c>
+      <c r="S87">
+        <f t="shared" si="27"/>
+        <v>0.51020408163264952</v>
+      </c>
+      <c r="T87" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U87" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V87">
+        <v>127.54190486330546</v>
+      </c>
+      <c r="W87">
+        <v>129.03620704078662</v>
+      </c>
+      <c r="X87">
+        <f t="shared" si="30"/>
+        <v>-1.4943021774811598</v>
+      </c>
+      <c r="Y87">
+        <v>-2.5469444185487022</v>
+      </c>
+      <c r="Z87" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA87" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB87" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC87" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD87" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE87" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF87" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG87" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="88" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B88" s="1"/>
+      <c r="A88" t="s">
+        <v>5</v>
+      </c>
+      <c r="B88" s="1">
+        <v>42982</v>
+      </c>
+      <c r="C88">
+        <v>130</v>
+      </c>
+      <c r="D88">
+        <v>130.05000000000001</v>
+      </c>
+      <c r="E88">
+        <v>125.7</v>
+      </c>
+      <c r="F88">
+        <v>127.05</v>
+      </c>
+      <c r="G88">
+        <f>_xll.TA_TYPPRICE(D88,E88,F88)</f>
+        <v>127.60000000000001</v>
+      </c>
+      <c r="H88">
+        <v>128.14657970569255</v>
+      </c>
+      <c r="I88" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J88">
+        <v>129.89759635434339</v>
+      </c>
+      <c r="K88">
+        <v>126.28640001906955</v>
+      </c>
+      <c r="L88" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M88" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N88">
+        <v>46.877731034347129</v>
+      </c>
+      <c r="O88" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P88" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q88">
+        <f t="shared" si="25"/>
+        <v>1.3499999999999943</v>
+      </c>
+      <c r="R88">
+        <f t="shared" si="26"/>
+        <v>4.3500000000000085</v>
+      </c>
+      <c r="S88">
+        <f t="shared" si="27"/>
+        <v>0.31034482758620496</v>
+      </c>
+      <c r="T88" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U88" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V88">
+        <v>127.4662271920277</v>
+      </c>
+      <c r="W88">
+        <v>128.88908059332095</v>
+      </c>
+      <c r="X88">
+        <f t="shared" si="30"/>
+        <v>-1.4228534012932528</v>
+      </c>
+      <c r="Y88">
+        <v>-2.3221262150976125</v>
+      </c>
+      <c r="Z88" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA88" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB88" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC88" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD88" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE88" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF88" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG88" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="89" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B89" s="1"/>
+      <c r="A89" t="s">
+        <v>5</v>
+      </c>
+      <c r="B89" s="1">
+        <v>42983</v>
+      </c>
+      <c r="C89">
+        <v>127.25</v>
+      </c>
+      <c r="D89">
+        <v>129.9</v>
+      </c>
+      <c r="E89">
+        <v>126.45</v>
+      </c>
+      <c r="F89">
+        <v>129.6</v>
+      </c>
+      <c r="G89">
+        <f>_xll.TA_TYPPRICE(D89,E89,F89)</f>
+        <v>128.65</v>
+      </c>
+      <c r="H89">
+        <v>128.39828985284629</v>
+      </c>
+      <c r="I89" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J89">
+        <v>129.89813049782265</v>
+      </c>
+      <c r="K89">
+        <v>126.32275557038743</v>
+      </c>
+      <c r="L89" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M89" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N89">
+        <v>59.316363286623982</v>
+      </c>
+      <c r="O89" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P89" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q89">
+        <f t="shared" si="25"/>
+        <v>3.1499999999999915</v>
+      </c>
+      <c r="R89">
+        <f t="shared" si="26"/>
+        <v>3.4500000000000028</v>
+      </c>
+      <c r="S89">
+        <f t="shared" si="27"/>
+        <v>0.91304347826086629</v>
+      </c>
+      <c r="T89" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U89" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V89">
+        <v>127.79449993171575</v>
+      </c>
+      <c r="W89">
+        <v>128.94174129011199</v>
+      </c>
+      <c r="X89">
+        <f t="shared" si="30"/>
+        <v>-1.1472413583962435</v>
+      </c>
+      <c r="Y89">
+        <v>-2.0871492437573389</v>
+      </c>
+      <c r="Z89" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA89" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB89" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC89" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD89" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE89" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF89" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG89" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="90" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B90" s="1"/>
+      <c r="A90" t="s">
+        <v>5</v>
+      </c>
+      <c r="B90" s="1">
+        <v>42984</v>
+      </c>
+      <c r="C90">
+        <v>128.44999999999999</v>
+      </c>
+      <c r="D90">
+        <v>128.6</v>
+      </c>
+      <c r="E90">
+        <v>126.9</v>
+      </c>
+      <c r="F90">
+        <v>127.3</v>
+      </c>
+      <c r="G90">
+        <f>_xll.TA_TYPPRICE(D90,E90,F90)</f>
+        <v>127.60000000000001</v>
+      </c>
+      <c r="H90">
+        <v>127.99914492642316</v>
+      </c>
+      <c r="I90" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J90">
+        <v>129.60965705386207</v>
+      </c>
+      <c r="K90">
+        <v>126.45103211030134</v>
+      </c>
+      <c r="L90" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M90" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N90">
+        <v>46.927733846894412</v>
+      </c>
+      <c r="O90" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P90" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q90">
+        <f t="shared" si="25"/>
+        <v>0.39999999999999147</v>
+      </c>
+      <c r="R90">
+        <f t="shared" si="26"/>
+        <v>1.6999999999999886</v>
+      </c>
+      <c r="S90">
+        <f t="shared" si="27"/>
+        <v>0.23529411764705538</v>
+      </c>
+      <c r="T90" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U90" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V90">
+        <v>127.7184230191441</v>
+      </c>
+      <c r="W90">
+        <v>128.82013082417777</v>
+      </c>
+      <c r="X90">
+        <f t="shared" si="30"/>
+        <v>-1.1017078050336693</v>
+      </c>
+      <c r="Y90">
+        <v>-1.8900609560126049</v>
+      </c>
+      <c r="Z90" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA90" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB90" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC90" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD90" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE90" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF90" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG90" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="91" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B91" s="1"/>
+      <c r="A91" t="s">
+        <v>5</v>
+      </c>
+      <c r="B91" s="1">
+        <v>42985</v>
+      </c>
+      <c r="C91">
+        <v>127.7</v>
+      </c>
+      <c r="D91">
+        <v>130</v>
+      </c>
+      <c r="E91">
+        <v>126.6</v>
+      </c>
+      <c r="F91">
+        <v>127.3</v>
+      </c>
+      <c r="G91">
+        <f>_xll.TA_TYPPRICE(D91,E91,F91)</f>
+        <v>127.96666666666668</v>
+      </c>
+      <c r="H91">
+        <v>127.98290579654491</v>
+      </c>
+      <c r="I91" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J91">
+        <v>129.69639993078161</v>
+      </c>
+      <c r="K91">
+        <v>126.48413608578993</v>
+      </c>
+      <c r="L91" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M91" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N91">
+        <v>46.927733846894412</v>
+      </c>
+      <c r="O91" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P91" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q91">
+        <f t="shared" si="25"/>
+        <v>0.70000000000000284</v>
+      </c>
+      <c r="R91">
+        <f t="shared" si="26"/>
+        <v>3.4000000000000057</v>
+      </c>
+      <c r="S91">
+        <f t="shared" si="27"/>
+        <v>0.20588235294117696</v>
+      </c>
+      <c r="T91" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U91" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V91">
+        <v>127.65405024696808</v>
+      </c>
+      <c r="W91">
+        <v>128.70752854090534</v>
+      </c>
+      <c r="X91">
+        <f t="shared" si="30"/>
+        <v>-1.0534782939372604</v>
+      </c>
+      <c r="Y91">
+        <v>-1.722744423597536</v>
+      </c>
+      <c r="Z91" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA91" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB91" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC91" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD91" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE91" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF91" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG91" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="92" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B92" s="1"/>
+      <c r="A92" t="s">
+        <v>5</v>
+      </c>
+      <c r="B92" s="1">
+        <v>42986</v>
+      </c>
+      <c r="C92">
+        <v>127.5</v>
+      </c>
+      <c r="D92">
+        <v>128.55000000000001</v>
+      </c>
+      <c r="E92">
+        <v>122.55</v>
+      </c>
+      <c r="F92">
+        <v>123.05</v>
+      </c>
+      <c r="G92">
+        <f>_xll.TA_TYPPRICE(D92,E92,F92)</f>
+        <v>124.71666666666668</v>
+      </c>
+      <c r="H92">
+        <v>126.3497862316058</v>
+      </c>
+      <c r="I92" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J92">
+        <v>129.44164439060793</v>
+      </c>
+      <c r="K92">
+        <v>125.60988362228106</v>
+      </c>
+      <c r="L92" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M92" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N92">
+        <v>29.274624795912729</v>
+      </c>
+      <c r="O92" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P92" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q92">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="R92">
+        <f t="shared" si="26"/>
+        <v>6.0000000000000142</v>
+      </c>
+      <c r="S92">
+        <f t="shared" si="27"/>
+        <v>8.3333333333333134E-2</v>
+      </c>
+      <c r="T92" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U92" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V92">
+        <v>126.94573482435761</v>
+      </c>
+      <c r="W92">
+        <v>128.28845235269014</v>
+      </c>
+      <c r="X92">
+        <f t="shared" si="30"/>
+        <v>-1.3427175283325283</v>
+      </c>
+      <c r="Y92">
+        <v>-1.6467390445445345</v>
+      </c>
+      <c r="Z92" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA92" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB92" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC92" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD92" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE92" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF92" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG92" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="93" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B93" s="1"/>
+      <c r="A93" t="s">
+        <v>5</v>
+      </c>
+      <c r="B93" s="1">
+        <v>42989</v>
+      </c>
+      <c r="C93">
+        <v>123.7</v>
+      </c>
+      <c r="D93">
+        <v>124.65</v>
+      </c>
+      <c r="E93">
+        <v>121.75</v>
+      </c>
+      <c r="F93">
+        <v>123.25</v>
+      </c>
+      <c r="G93">
+        <f>_xll.TA_TYPPRICE(D93,E93,F93)</f>
+        <v>123.21666666666665</v>
+      </c>
+      <c r="H93">
+        <v>124.78322644913624</v>
+      </c>
+      <c r="I93" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J93">
+        <v>128.3768345260284</v>
+      </c>
+      <c r="K93">
+        <v>124.75213170621861</v>
+      </c>
+      <c r="L93" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M93" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N93">
+        <v>30.805756901764386</v>
+      </c>
+      <c r="O93" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P93" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q93">
+        <f t="shared" si="25"/>
+        <v>1.5</v>
+      </c>
+      <c r="R93">
+        <f t="shared" si="26"/>
+        <v>2.9000000000000057</v>
+      </c>
+      <c r="S93">
+        <f t="shared" si="27"/>
+        <v>0.51724137931034386</v>
+      </c>
+      <c r="T93" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U93" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V93">
+        <v>126.37716023599491</v>
+      </c>
+      <c r="W93">
+        <v>127.91523365989828</v>
+      </c>
+      <c r="X93">
+        <f t="shared" si="30"/>
+        <v>-1.53807342390337</v>
+      </c>
+      <c r="Y93">
+        <v>-1.6250059204163017</v>
+      </c>
+      <c r="Z93" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA93" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB93" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC93" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD93" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE93" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF93" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG93" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="94" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B94" s="1"/>
+      <c r="A94" t="s">
+        <v>5</v>
+      </c>
+      <c r="B94" s="1">
+        <v>42990</v>
+      </c>
+      <c r="C94">
+        <v>123.45</v>
+      </c>
+      <c r="D94">
+        <v>126</v>
+      </c>
+      <c r="E94">
+        <v>123.1</v>
+      </c>
+      <c r="F94">
+        <v>124.85</v>
+      </c>
+      <c r="G94">
+        <f>_xll.TA_TYPPRICE(D94,E94,F94)</f>
+        <v>124.64999999999999</v>
+      </c>
+      <c r="H94">
+        <v>124.71661322456811</v>
+      </c>
+      <c r="I94" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J94">
+        <v>127.84864907579987</v>
+      </c>
+      <c r="K94">
+        <v>124.38499132705891</v>
+      </c>
+      <c r="L94" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M94" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N94">
+        <v>43.119749854776131</v>
+      </c>
+      <c r="O94" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P94" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q94">
+        <f t="shared" si="25"/>
+        <v>1.75</v>
+      </c>
+      <c r="R94">
+        <f t="shared" si="26"/>
+        <v>2.9000000000000057</v>
+      </c>
+      <c r="S94">
+        <f t="shared" si="27"/>
+        <v>0.60344827586206773</v>
+      </c>
+      <c r="T94" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U94" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V94">
+        <v>126.14221250738031</v>
+      </c>
+      <c r="W94">
+        <v>127.68817931472063</v>
+      </c>
+      <c r="X94">
+        <f t="shared" si="30"/>
+        <v>-1.5459668073403208</v>
+      </c>
+      <c r="Y94">
+        <v>-1.6091980978011056</v>
+      </c>
+      <c r="Z94" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA94" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB94" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC94" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD94" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE94" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF94" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG94" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="95" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B95" s="1"/>
+      <c r="A95" t="s">
+        <v>5</v>
+      </c>
+      <c r="B95" s="1">
+        <v>42991</v>
+      </c>
+      <c r="C95">
+        <v>125.1</v>
+      </c>
+      <c r="D95">
+        <v>128.69999999999999</v>
+      </c>
+      <c r="E95">
+        <v>124.6</v>
+      </c>
+      <c r="F95">
+        <v>125</v>
+      </c>
+      <c r="G95">
+        <f>_xll.TA_TYPPRICE(D95,E95,F95)</f>
+        <v>126.09999999999998</v>
+      </c>
+      <c r="H95">
+        <v>125.40830661228404</v>
+      </c>
+      <c r="I95" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J95">
+        <v>128.03783817006655</v>
+      </c>
+      <c r="K95">
+        <v>124.43277103215694</v>
+      </c>
+      <c r="L95" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M95" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N95">
+        <v>44.281753963925908</v>
+      </c>
+      <c r="O95" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P95" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q95">
+        <f t="shared" si="25"/>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="R95">
+        <f t="shared" si="26"/>
+        <v>4.0999999999999943</v>
+      </c>
+      <c r="S95">
+        <f t="shared" si="27"/>
+        <v>9.7560975609757614E-2</v>
+      </c>
+      <c r="T95" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U95" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V95">
+        <v>125.96648750624487</v>
+      </c>
+      <c r="W95">
+        <v>127.48905492103762</v>
+      </c>
+      <c r="X95">
+        <f t="shared" si="30"/>
+        <v>-1.5225674147927464</v>
+      </c>
+      <c r="Y95">
+        <v>-1.5918719611994336</v>
+      </c>
+      <c r="Z95" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA95" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB95" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC95" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD95" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE95" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF95" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG95" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
     </row>
     <row r="96" spans="1:33" x14ac:dyDescent="0.25">
-      <c r="B96" s="1"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B97" s="1"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B98" s="1"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B99" s="1"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B100" s="1"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B101" s="1"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B102" s="1"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B103" s="1"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B104" s="1"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B105" s="1"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B106" s="1"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B107" s="1"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="A96" t="s">
+        <v>5</v>
+      </c>
+      <c r="B96" s="1">
+        <v>42992</v>
+      </c>
+      <c r="C96">
+        <v>125.5</v>
+      </c>
+      <c r="D96">
+        <v>127.25</v>
+      </c>
+      <c r="E96">
+        <v>124.55</v>
+      </c>
+      <c r="F96">
+        <v>126.15</v>
+      </c>
+      <c r="G96">
+        <f>_xll.TA_TYPPRICE(D96,E96,F96)</f>
+        <v>125.98333333333335</v>
+      </c>
+      <c r="H96">
+        <v>125.69581997280869</v>
+      </c>
+      <c r="I96" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J96">
+        <v>127.86276302116288</v>
+      </c>
+      <c r="K96">
+        <v>124.45882191389984</v>
+      </c>
+      <c r="L96" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M96" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N96">
+        <v>53.404168908511942</v>
+      </c>
+      <c r="O96" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P96" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q96">
+        <f t="shared" si="25"/>
+        <v>1.6000000000000085</v>
+      </c>
+      <c r="R96">
+        <f t="shared" si="26"/>
+        <v>2.7000000000000028</v>
+      </c>
+      <c r="S96">
+        <f t="shared" si="27"/>
+        <v>0.59259259259259511</v>
+      </c>
+      <c r="T96" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U96" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V96">
+        <v>125.99472019759182</v>
+      </c>
+      <c r="W96">
+        <v>127.38986566762743</v>
+      </c>
+      <c r="X96">
+        <f t="shared" si="30"/>
+        <v>-1.3951454700356152</v>
+      </c>
+      <c r="Y96">
+        <v>-1.5525266629666699</v>
+      </c>
+      <c r="Z96" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA96" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB96" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC96" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD96" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE96" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF96" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG96" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="97" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A97" t="s">
+        <v>5</v>
+      </c>
+      <c r="B97" s="1">
+        <v>42993</v>
+      </c>
+      <c r="C97">
+        <v>125.65</v>
+      </c>
+      <c r="D97">
+        <v>127.15</v>
+      </c>
+      <c r="E97">
+        <v>124</v>
+      </c>
+      <c r="F97">
+        <v>127.1</v>
+      </c>
+      <c r="G97">
+        <f>_xll.TA_TYPPRICE(D97,E97,F97)</f>
+        <v>126.08333333333333</v>
+      </c>
+      <c r="H97">
+        <v>125.889576653071</v>
+      </c>
+      <c r="I97" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J97">
+        <v>127.70437123868224</v>
+      </c>
+      <c r="K97">
+        <v>124.35686148858876</v>
+      </c>
+      <c r="L97" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M97" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N97">
+        <v>60.14257793660699</v>
+      </c>
+      <c r="O97" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P97" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q97">
+        <f t="shared" si="25"/>
+        <v>3.0999999999999943</v>
+      </c>
+      <c r="R97">
+        <f t="shared" si="26"/>
+        <v>3.1500000000000057</v>
+      </c>
+      <c r="S97">
+        <f t="shared" si="27"/>
+        <v>0.98412698412698052</v>
+      </c>
+      <c r="T97" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U97" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V97">
+        <v>126.16476324411616</v>
+      </c>
+      <c r="W97">
+        <v>127.36839413669206</v>
+      </c>
+      <c r="X97">
+        <f t="shared" si="30"/>
+        <v>-1.2036308925759016</v>
+      </c>
+      <c r="Y97">
+        <v>-1.4827475088885163</v>
+      </c>
+      <c r="Z97" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA97" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB97" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC97" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD97" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE97" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF97" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG97" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="98" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A98" t="s">
+        <v>5</v>
+      </c>
+      <c r="B98" s="1">
+        <v>42996</v>
+      </c>
+      <c r="C98">
+        <v>126.55</v>
+      </c>
+      <c r="D98">
+        <v>135.69999999999999</v>
+      </c>
+      <c r="E98">
+        <v>126.55</v>
+      </c>
+      <c r="F98">
+        <v>134.4</v>
+      </c>
+      <c r="G98">
+        <f>_xll.TA_TYPPRICE(D98,E98,F98)</f>
+        <v>132.21666666666667</v>
+      </c>
+      <c r="H98">
+        <v>129.05312165986885</v>
+      </c>
+      <c r="I98" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J98">
+        <v>129.48117763008619</v>
+      </c>
+      <c r="K98">
+        <v>124.84422560223571</v>
+      </c>
+      <c r="L98" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M98" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N98">
+        <v>83.316660786093408</v>
+      </c>
+      <c r="O98" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P98" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q98">
+        <f t="shared" si="25"/>
+        <v>7.8500000000000085</v>
+      </c>
+      <c r="R98">
+        <f t="shared" si="26"/>
+        <v>9.1499999999999915</v>
+      </c>
+      <c r="S98">
+        <f t="shared" si="27"/>
+        <v>0.85792349726776129</v>
+      </c>
+      <c r="T98" t="str">
+        <f t="shared" si="28"/>
+        <v>UP</v>
+      </c>
+      <c r="U98" t="str">
+        <f t="shared" si="29"/>
+        <v>UP</v>
+      </c>
+      <c r="V98">
+        <v>127.43172274502136</v>
+      </c>
+      <c r="W98">
+        <v>127.88925383027043</v>
+      </c>
+      <c r="X98">
+        <f t="shared" si="30"/>
+        <v>-0.45753108524907304</v>
+      </c>
+      <c r="Y98">
+        <v>-1.2777042241606276</v>
+      </c>
+      <c r="Z98" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA98" t="str">
+        <f t="shared" si="32"/>
+        <v>UP</v>
+      </c>
+      <c r="AB98" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC98" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD98" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE98" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF98" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG98" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="99" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A99" t="s">
+        <v>5</v>
+      </c>
+      <c r="B99" s="1">
+        <v>42997</v>
+      </c>
+      <c r="C99">
+        <v>135.55000000000001</v>
+      </c>
+      <c r="D99">
+        <v>135.9</v>
+      </c>
+      <c r="E99">
+        <v>131.25</v>
+      </c>
+      <c r="F99">
+        <v>131.75</v>
+      </c>
+      <c r="G99">
+        <f>_xll.TA_TYPPRICE(D99,E99,F99)</f>
+        <v>132.96666666666667</v>
+      </c>
+      <c r="H99">
+        <v>131.00989416326775</v>
+      </c>
+      <c r="I99" t="str">
+        <f t="shared" si="20"/>
+        <v>UP</v>
+      </c>
+      <c r="J99">
+        <v>130.90758260117815</v>
+      </c>
+      <c r="K99">
+        <v>126.2677310239611</v>
+      </c>
+      <c r="L99" t="str">
+        <f t="shared" si="21"/>
+        <v>UP</v>
+      </c>
+      <c r="M99" t="str">
+        <f t="shared" si="22"/>
+        <v>UP</v>
+      </c>
+      <c r="N99">
+        <v>65.923876404939335</v>
+      </c>
+      <c r="O99" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P99" t="str">
+        <f t="shared" si="24"/>
+        <v>UP</v>
+      </c>
+      <c r="Q99">
+        <f t="shared" si="25"/>
+        <v>0.5</v>
+      </c>
+      <c r="R99">
+        <f t="shared" si="26"/>
+        <v>4.6500000000000057</v>
+      </c>
+      <c r="S99">
+        <f t="shared" si="27"/>
+        <v>0.10752688172042997</v>
+      </c>
+      <c r="T99" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U99" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V99">
+        <v>128.09607309194115</v>
+      </c>
+      <c r="W99">
+        <v>128.17523502802817</v>
+      </c>
+      <c r="X99">
+        <f t="shared" si="30"/>
+        <v>-7.9161936087018603E-2</v>
+      </c>
+      <c r="Y99">
+        <v>-1.0379957665459059</v>
+      </c>
+      <c r="Z99" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA99" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB99" t="str">
+        <f t="shared" si="33"/>
+        <v>UP</v>
+      </c>
+      <c r="AC99" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD99" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE99" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF99" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG99" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="100" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A100" t="s">
+        <v>5</v>
+      </c>
+      <c r="B100" s="1">
+        <v>42998</v>
+      </c>
+      <c r="C100">
+        <v>131.9</v>
+      </c>
+      <c r="D100">
+        <v>133.80000000000001</v>
+      </c>
+      <c r="E100">
+        <v>130.35</v>
+      </c>
+      <c r="F100">
+        <v>130.75</v>
+      </c>
+      <c r="G100">
+        <f>_xll.TA_TYPPRICE(D100,E100,F100)</f>
+        <v>131.63333333333333</v>
+      </c>
+      <c r="H100">
+        <v>131.32161374830054</v>
+      </c>
+      <c r="I100" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J100">
+        <v>131.55034202313857</v>
+      </c>
+      <c r="K100">
+        <v>127.1749019075253</v>
+      </c>
+      <c r="L100" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M100" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N100">
+        <v>60.014302610398083</v>
+      </c>
+      <c r="O100" t="str">
+        <f t="shared" si="23"/>
+        <v>UP</v>
+      </c>
+      <c r="P100" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q100">
+        <f t="shared" si="25"/>
+        <v>0.40000000000000568</v>
+      </c>
+      <c r="R100">
+        <f t="shared" si="26"/>
+        <v>3.4500000000000171</v>
+      </c>
+      <c r="S100">
+        <f t="shared" si="27"/>
+        <v>0.11594202898550832</v>
+      </c>
+      <c r="T100" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U100" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V100">
+        <v>128.50436953933482</v>
+      </c>
+      <c r="W100">
+        <v>128.36595835928534</v>
+      </c>
+      <c r="X100">
+        <f t="shared" si="30"/>
+        <v>0.13841118004947361</v>
+      </c>
+      <c r="Y100">
+        <v>-0.80271437722682992</v>
+      </c>
+      <c r="Z100" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA100" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB100" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC100" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD100" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE100" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG100" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="101" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A101" t="s">
+        <v>5</v>
+      </c>
+      <c r="B101" s="1">
+        <v>42999</v>
+      </c>
+      <c r="C101">
+        <v>130.75</v>
+      </c>
+      <c r="D101">
+        <v>131</v>
+      </c>
+      <c r="E101">
+        <v>126.2</v>
+      </c>
+      <c r="F101">
+        <v>128.94999999999999</v>
+      </c>
+      <c r="G101">
+        <f>_xll.TA_TYPPRICE(D101,E101,F101)</f>
+        <v>128.71666666666667</v>
+      </c>
+      <c r="H101">
+        <v>130.01914020748359</v>
+      </c>
+      <c r="I101" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J101">
+        <v>131.42804379577444</v>
+      </c>
+      <c r="K101">
+        <v>126.95825703918634</v>
+      </c>
+      <c r="L101" t="str">
+        <f t="shared" si="21"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="M101" t="str">
+        <f t="shared" si="22"/>
+        <v>No Trend</v>
+      </c>
+      <c r="N101">
+        <v>49.941361021990147</v>
+      </c>
+      <c r="O101" t="str">
+        <f t="shared" si="23"/>
+        <v>No Momentum</v>
+      </c>
+      <c r="P101" t="str">
+        <f t="shared" si="24"/>
+        <v>No Trend + Momentum</v>
+      </c>
+      <c r="Q101">
+        <f t="shared" si="25"/>
+        <v>2.7499999999999858</v>
+      </c>
+      <c r="R101">
+        <f t="shared" si="26"/>
+        <v>4.7999999999999972</v>
+      </c>
+      <c r="S101">
+        <f t="shared" si="27"/>
+        <v>0.57291666666666408</v>
+      </c>
+      <c r="T101" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U101" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V101">
+        <v>128.57292807174485</v>
+      </c>
+      <c r="W101">
+        <v>128.409220703042</v>
+      </c>
+      <c r="X101">
+        <f t="shared" si="30"/>
+        <v>0.16370736870285896</v>
+      </c>
+      <c r="Y101">
+        <v>-0.60943002804089219</v>
+      </c>
+      <c r="Z101" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA101" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB101" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC101" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD101" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE101" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG101" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="102" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A102" t="s">
+        <v>5</v>
+      </c>
+      <c r="B102" s="1">
+        <v>43000</v>
+      </c>
+      <c r="C102">
+        <v>128.4</v>
+      </c>
+      <c r="D102">
+        <v>128.4</v>
+      </c>
+      <c r="E102">
+        <v>121.55</v>
+      </c>
+      <c r="F102">
+        <v>122.3</v>
+      </c>
+      <c r="G102">
+        <f>_xll.TA_TYPPRICE(D102,E102,F102)</f>
+        <v>124.08333333333333</v>
+      </c>
+      <c r="H102">
+        <v>127.05123677040845</v>
+      </c>
+      <c r="I102" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J102">
+        <v>130.75514517449125</v>
+      </c>
+      <c r="K102">
+        <v>125.75642214158937</v>
+      </c>
+      <c r="L102" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M102" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N102">
+        <v>28.134309046232421</v>
+      </c>
+      <c r="O102" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P102" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q102">
+        <f t="shared" si="25"/>
+        <v>0.75</v>
+      </c>
+      <c r="R102">
+        <f t="shared" si="26"/>
+        <v>6.8500000000000085</v>
+      </c>
+      <c r="S102">
+        <f t="shared" si="27"/>
+        <v>0.10948905109489038</v>
+      </c>
+      <c r="T102" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U102" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V102">
+        <v>127.60786221455334</v>
+      </c>
+      <c r="W102">
+        <v>127.95668583615</v>
+      </c>
+      <c r="X102">
+        <f t="shared" si="30"/>
+        <v>-0.34882362159666513</v>
+      </c>
+      <c r="Y102">
+        <v>-0.55730874675204678</v>
+      </c>
+      <c r="Z102" t="str">
+        <f t="shared" si="31"/>
+        <v>UP</v>
+      </c>
+      <c r="AA102" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB102" t="str">
+        <f t="shared" si="33"/>
+        <v>No Confirmation</v>
+      </c>
+      <c r="AC102" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD102" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE102" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF102" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG102" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="103" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A103" t="s">
+        <v>5</v>
+      </c>
+      <c r="B103" s="1">
+        <v>43003</v>
+      </c>
+      <c r="C103">
+        <v>122.85</v>
+      </c>
+      <c r="D103">
+        <v>122.9</v>
+      </c>
+      <c r="E103">
+        <v>117.55</v>
+      </c>
+      <c r="F103">
+        <v>119.6</v>
+      </c>
+      <c r="G103">
+        <f>_xll.TA_TYPPRICE(D103,E103,F103)</f>
+        <v>120.01666666666665</v>
+      </c>
+      <c r="H103">
+        <v>123.53395171853755</v>
+      </c>
+      <c r="I103" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J103">
+        <v>129.00955735793764</v>
+      </c>
+      <c r="K103">
+        <v>123.93277277679174</v>
+      </c>
+      <c r="L103" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M103" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N103">
+        <v>23.030522450995466</v>
+      </c>
+      <c r="O103" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P103" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q103">
+        <f t="shared" si="25"/>
+        <v>2.0499999999999972</v>
+      </c>
+      <c r="R103">
+        <f t="shared" si="26"/>
+        <v>5.3500000000000085</v>
+      </c>
+      <c r="S103">
+        <f t="shared" si="27"/>
+        <v>0.38317757009345682</v>
+      </c>
+      <c r="T103" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U103" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V103">
+        <v>126.37588341231437</v>
+      </c>
+      <c r="W103">
+        <v>127.33767207050926</v>
+      </c>
+      <c r="X103">
+        <f t="shared" si="30"/>
+        <v>-0.9617886581948909</v>
+      </c>
+      <c r="Y103">
+        <v>-0.63820472904061565</v>
+      </c>
+      <c r="Z103" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA103" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB103" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC103" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD103" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE103" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF103" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG103" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="104" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A104" t="s">
+        <v>5</v>
+      </c>
+      <c r="B104" s="1">
+        <v>43004</v>
+      </c>
+      <c r="C104">
+        <v>119.55</v>
+      </c>
+      <c r="D104">
+        <v>120.4</v>
+      </c>
+      <c r="E104">
+        <v>116.1</v>
+      </c>
+      <c r="F104">
+        <v>116.65</v>
+      </c>
+      <c r="G104">
+        <f>_xll.TA_TYPPRICE(D104,E104,F104)</f>
+        <v>117.71666666666665</v>
+      </c>
+      <c r="H104">
+        <v>120.6253091926021</v>
+      </c>
+      <c r="I104" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J104">
+        <v>127.09632238950705</v>
+      </c>
+      <c r="K104">
+        <v>122.19215660417134</v>
+      </c>
+      <c r="L104" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M104" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N104">
+        <v>18.457550113741839</v>
+      </c>
+      <c r="O104" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P104" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q104">
+        <f t="shared" si="25"/>
+        <v>0.55000000000001137</v>
+      </c>
+      <c r="R104">
+        <f t="shared" si="26"/>
+        <v>4.3000000000000114</v>
+      </c>
+      <c r="S104">
+        <f t="shared" si="27"/>
+        <v>0.12790697674418836</v>
+      </c>
+      <c r="T104" t="str">
+        <f t="shared" si="28"/>
+        <v>DOWN</v>
+      </c>
+      <c r="U104" t="str">
+        <f t="shared" si="29"/>
+        <v>DOWN</v>
+      </c>
+      <c r="V104">
+        <v>124.87959365657369</v>
+      </c>
+      <c r="W104">
+        <v>126.54599265787894</v>
+      </c>
+      <c r="X104">
+        <f t="shared" si="30"/>
+        <v>-1.6663990013052512</v>
+      </c>
+      <c r="Y104">
+        <v>-0.84384358349354271</v>
+      </c>
+      <c r="Z104" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA104" t="str">
+        <f t="shared" si="32"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AB104" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC104" t="str">
+        <f t="shared" si="34"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AD104">
+        <f t="shared" si="35"/>
+        <v>119.9</v>
+      </c>
+      <c r="AE104">
+        <f t="shared" si="36"/>
+        <v>118.75</v>
+      </c>
+      <c r="AF104">
+        <f t="shared" si="37"/>
+        <v>118.25</v>
+      </c>
+      <c r="AG104">
+        <f t="shared" si="38"/>
+        <v>117.75</v>
+      </c>
+    </row>
+    <row r="105" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A105" t="s">
+        <v>5</v>
+      </c>
+      <c r="B105" s="1">
+        <v>43005</v>
+      </c>
+      <c r="C105">
+        <v>117.1</v>
+      </c>
+      <c r="D105">
+        <v>119</v>
+      </c>
+      <c r="E105">
+        <v>113.6</v>
+      </c>
+      <c r="F105">
+        <v>114.8</v>
+      </c>
+      <c r="G105">
+        <f>_xll.TA_TYPPRICE(D105,E105,F105)</f>
+        <v>115.8</v>
+      </c>
+      <c r="H105">
+        <v>118.21265459630105</v>
+      </c>
+      <c r="I105" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J105">
+        <v>125.29713963628326</v>
+      </c>
+      <c r="K105">
+        <v>120.28278846991104</v>
+      </c>
+      <c r="L105" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M105" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N105">
+        <v>15.971547866093939</v>
+      </c>
+      <c r="O105" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P105" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q105">
+        <f t="shared" si="25"/>
+        <v>1.2000000000000028</v>
+      </c>
+      <c r="R105">
+        <f t="shared" si="26"/>
+        <v>5.4000000000000057</v>
+      </c>
+      <c r="S105">
+        <f t="shared" si="27"/>
+        <v>0.22222222222222252</v>
+      </c>
+      <c r="T105" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U105" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V105">
+        <v>123.32888694017774</v>
+      </c>
+      <c r="W105">
+        <v>125.67591912766568</v>
+      </c>
+      <c r="X105">
+        <f t="shared" si="30"/>
+        <v>-2.3470321874879403</v>
+      </c>
+      <c r="Y105">
+        <v>-1.1444813042924222</v>
+      </c>
+      <c r="Z105" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA105" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB105" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC105" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD105" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE105" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF105" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG105" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="106" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A106" t="s">
+        <v>5</v>
+      </c>
+      <c r="B106" s="1">
+        <v>43006</v>
+      </c>
+      <c r="C106">
+        <v>114.5</v>
+      </c>
+      <c r="D106">
+        <v>115.65</v>
+      </c>
+      <c r="E106">
+        <v>111</v>
+      </c>
+      <c r="F106">
+        <v>111.95</v>
+      </c>
+      <c r="G106">
+        <f>_xll.TA_TYPPRICE(D106,E106,F106)</f>
+        <v>112.86666666666667</v>
+      </c>
+      <c r="H106">
+        <v>115.53966063148386</v>
+      </c>
+      <c r="I106" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J106">
+        <v>123.15333082822032</v>
+      </c>
+      <c r="K106">
+        <v>118.21994658770859</v>
+      </c>
+      <c r="L106" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M106" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N106">
+        <v>12.682227675454385</v>
+      </c>
+      <c r="O106" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P106" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q106">
+        <f t="shared" si="25"/>
+        <v>0.95000000000000284</v>
+      </c>
+      <c r="R106">
+        <f t="shared" si="26"/>
+        <v>4.6500000000000057</v>
+      </c>
+      <c r="S106">
+        <f t="shared" si="27"/>
+        <v>0.20430107526881758</v>
+      </c>
+      <c r="T106" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U106" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V106">
+        <v>121.57828894938116</v>
+      </c>
+      <c r="W106">
+        <v>124.65918437746822</v>
+      </c>
+      <c r="X106">
+        <f t="shared" si="30"/>
+        <v>-3.0808954280870608</v>
+      </c>
+      <c r="Y106">
+        <v>-1.53176412905135</v>
+      </c>
+      <c r="Z106" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA106" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB106" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC106" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD106" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE106" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF106" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG106" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="107" spans="1:33" x14ac:dyDescent="0.25">
+      <c r="A107" t="s">
+        <v>5</v>
+      </c>
+      <c r="B107" s="1">
+        <v>43007</v>
+      </c>
+      <c r="C107">
+        <v>112.75</v>
+      </c>
+      <c r="D107">
+        <v>116.3</v>
+      </c>
+      <c r="E107">
+        <v>112.7</v>
+      </c>
+      <c r="F107">
+        <v>114</v>
+      </c>
+      <c r="G107">
+        <f>_xll.TA_TYPPRICE(D107,E107,F107)</f>
+        <v>114.33333333333333</v>
+      </c>
+      <c r="H107">
+        <v>114.93649698240858</v>
+      </c>
+      <c r="I107" t="str">
+        <f t="shared" si="20"/>
+        <v>DOWN</v>
+      </c>
+      <c r="J107">
+        <v>121.63036842194914</v>
+      </c>
+      <c r="K107">
+        <v>116.99329179044001</v>
+      </c>
+      <c r="L107" t="str">
+        <f t="shared" si="21"/>
+        <v>DOWN</v>
+      </c>
+      <c r="M107" t="str">
+        <f t="shared" si="22"/>
+        <v>DOWN</v>
+      </c>
+      <c r="N107">
+        <v>26.324885245295754</v>
+      </c>
+      <c r="O107" t="str">
+        <f t="shared" si="23"/>
+        <v>DOWN</v>
+      </c>
+      <c r="P107" t="str">
+        <f t="shared" si="24"/>
+        <v>DOWN</v>
+      </c>
+      <c r="Q107">
+        <f t="shared" si="25"/>
+        <v>1.2999999999999972</v>
+      </c>
+      <c r="R107">
+        <f t="shared" si="26"/>
+        <v>3.5999999999999943</v>
+      </c>
+      <c r="S107">
+        <f t="shared" si="27"/>
+        <v>0.36111111111111088</v>
+      </c>
+      <c r="T107" t="str">
+        <f t="shared" si="28"/>
+        <v>No Indication</v>
+      </c>
+      <c r="U107" t="str">
+        <f t="shared" si="29"/>
+        <v>No T+M+I</v>
+      </c>
+      <c r="V107">
+        <v>120.41239834178405</v>
+      </c>
+      <c r="W107">
+        <v>123.86961516432243</v>
+      </c>
+      <c r="X107">
+        <f t="shared" si="30"/>
+        <v>-3.4572168225383706</v>
+      </c>
+      <c r="Y107">
+        <v>-1.9168546677487541</v>
+      </c>
+      <c r="Z107" t="str">
+        <f t="shared" si="31"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AA107" t="str">
+        <f t="shared" si="32"/>
+        <v>No TMIM</v>
+      </c>
+      <c r="AB107" t="str">
+        <f t="shared" si="33"/>
+        <v>DOWN</v>
+      </c>
+      <c r="AC107" t="str">
+        <f t="shared" si="34"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AD107" t="str">
+        <f t="shared" si="35"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AE107" t="str">
+        <f t="shared" si="36"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AF107" t="str">
+        <f t="shared" si="37"/>
+        <v>No Alert</v>
+      </c>
+      <c r="AG107" t="str">
+        <f t="shared" si="38"/>
+        <v>No Alert</v>
+      </c>
+    </row>
+    <row r="108" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B108" s="1"/>
     </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B109" s="1"/>
     </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B110" s="1"/>
     </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B111" s="1"/>
     </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:33" x14ac:dyDescent="0.25">
       <c r="B112" s="1"/>
     </row>
     <row r="113" spans="2:2" x14ac:dyDescent="0.25">
